--- a/Dataset/subject.xlsx
+++ b/Dataset/subject.xlsx
@@ -33,16 +33,16 @@
     <t>Toan</t>
   </si>
   <si>
-    <t>KH Xa Hoi</t>
-  </si>
-  <si>
     <t>Tieng Anh</t>
   </si>
   <si>
-    <t>KH Tu Nhien</t>
-  </si>
-  <si>
     <t>Tin Hoc</t>
+  </si>
+  <si>
+    <t>KHXH</t>
+  </si>
+  <si>
+    <t>KHTN</t>
   </si>
 </sst>
 </file>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="139" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
